--- a/BackTest/2020-01-21 BackTest VET.xlsx
+++ b/BackTest/2020-01-21 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-1062987.9499</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-924643.3175</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>-893378.0294999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-893278.0294999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>-1779666.041</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,22 +1045,15 @@
         <v>-1823526.3592</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>6.667</v>
-      </c>
-      <c r="K20" t="n">
-        <v>6.667</v>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1144,26 +1078,19 @@
         <v>-1785478.5219</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>6.652</v>
       </c>
       <c r="J21" t="n">
         <v>6.652</v>
       </c>
-      <c r="K21" t="n">
-        <v>6.667</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1188,26 +1115,23 @@
         <v>-1785478.5219</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>6.657</v>
       </c>
       <c r="J22" t="n">
-        <v>6.657</v>
-      </c>
-      <c r="K22" t="n">
-        <v>6.667</v>
-      </c>
-      <c r="L22" t="inlineStr">
+        <v>6.652</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1232,22 +1156,23 @@
         <v>-1786110.5219</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>6.657</v>
       </c>
       <c r="J23" t="n">
-        <v>6.657</v>
-      </c>
-      <c r="K23" t="n">
-        <v>6.657</v>
-      </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>6.652</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1272,26 +1197,15 @@
         <v>-1787110.5219</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>6.651</v>
-      </c>
-      <c r="K24" t="n">
-        <v>6.657</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1316,26 +1230,15 @@
         <v>-1724452.5219</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>6.644</v>
-      </c>
-      <c r="K25" t="n">
-        <v>6.657</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1360,26 +1263,15 @@
         <v>-1856349.5219</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="K26" t="n">
-        <v>6.657</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1406,22 +1298,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>6.657</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1446,26 +1329,15 @@
         <v>-1723380.351</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>6.666</v>
-      </c>
-      <c r="K28" t="n">
-        <v>6.657</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1490,26 +1362,15 @@
         <v>-1707206.4989</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>6.652</v>
-      </c>
-      <c r="K29" t="n">
-        <v>6.657</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1534,26 +1395,15 @@
         <v>-1804751.4989</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>6.682</v>
-      </c>
-      <c r="K30" t="n">
-        <v>6.657</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1578,26 +1428,15 @@
         <v>-1609661.4989</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>6.679</v>
-      </c>
-      <c r="K31" t="n">
-        <v>6.657</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1624,22 +1463,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>6.657</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1666,22 +1496,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>6.657</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1706,24 +1527,15 @@
         <v>-1545368.4899</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>6.657</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1750,22 +1562,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>6.657</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1792,22 +1595,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>6.657</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1832,24 +1626,15 @@
         <v>-1549469.467190206</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>6.657</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1874,24 +1659,15 @@
         <v>-1549469.467190206</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>6.657</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1916,24 +1692,15 @@
         <v>-1549469.467190206</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>6.657</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1960,22 +1727,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>6.657</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2002,22 +1760,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>6.657</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2042,24 +1791,19 @@
         <v>-1550961.623090205</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>6.657</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+        <v>6.684</v>
+      </c>
+      <c r="J42" t="n">
+        <v>6.684</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2084,26 +1828,23 @@
         <v>-1550961.623090205</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>6.683</v>
       </c>
       <c r="J43" t="n">
-        <v>6.683</v>
-      </c>
-      <c r="K43" t="n">
-        <v>6.657</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>6.684</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2128,26 +1869,23 @@
         <v>-1550235.173090206</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>6.683</v>
       </c>
       <c r="J44" t="n">
-        <v>6.683</v>
-      </c>
-      <c r="K44" t="n">
-        <v>6.657</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+        <v>6.684</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2172,26 +1910,19 @@
         <v>-1520235.173090206</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>6.692</v>
       </c>
       <c r="J45" t="n">
         <v>6.692</v>
       </c>
-      <c r="K45" t="n">
-        <v>6.657</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2218,22 +1949,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>6.657</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>0.9969528316058284</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>6.692</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2258,22 +1986,21 @@
         <v>-1493853.172290205</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="K47" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>6.692</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2300,22 +2027,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2342,22 +2060,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2382,18 +2091,15 @@
         <v>-102622715.2414902</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2420,16 +2126,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2454,22 +2157,15 @@
         <v>-103449718.2414902</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>6.662</v>
-      </c>
-      <c r="K52" t="n">
-        <v>6.662</v>
-      </c>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2496,22 +2192,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>6.662</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2536,26 +2223,15 @@
         <v>-103440631.1833902</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>6.652</v>
-      </c>
-      <c r="K54" t="n">
-        <v>6.662</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2580,22 +2256,15 @@
         <v>-103344175.3627902</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>6.692</v>
-      </c>
-      <c r="K55" t="n">
-        <v>6.692</v>
-      </c>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2620,26 +2289,19 @@
         <v>-103344100.3627902</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>6.701</v>
       </c>
       <c r="J56" t="n">
         <v>6.701</v>
       </c>
-      <c r="K56" t="n">
-        <v>6.692</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2664,26 +2326,23 @@
         <v>-103453716.3627902</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>6.709</v>
       </c>
       <c r="J57" t="n">
-        <v>6.709</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6.692</v>
-      </c>
-      <c r="L57" t="inlineStr">
+        <v>6.701</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2708,22 +2367,23 @@
         <v>-103453129.0563902</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>6.683</v>
       </c>
       <c r="J58" t="n">
-        <v>6.683</v>
-      </c>
-      <c r="K58" t="n">
-        <v>6.683</v>
-      </c>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>6.701</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2750,22 +2410,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>6.683</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2792,22 +2443,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>6.683</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2832,22 +2474,15 @@
         <v>-103426424.2936902</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="K61" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2872,26 +2507,15 @@
         <v>-103426424.2936902</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>6.715</v>
-      </c>
-      <c r="K62" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2916,26 +2540,15 @@
         <v>-103426424.2936902</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>6.715</v>
-      </c>
-      <c r="K63" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2960,26 +2573,15 @@
         <v>-103504424.2936902</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>6.715</v>
-      </c>
-      <c r="K64" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3004,24 +2606,15 @@
         <v>-103503979.386627</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3046,24 +2639,15 @@
         <v>-103853898.995027</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3088,24 +2672,15 @@
         <v>-103857176.181227</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3130,24 +2705,19 @@
         <v>-103856849.181227</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>6.707</v>
+      </c>
+      <c r="J68" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3174,22 +2744,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3216,22 +2783,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3258,22 +2822,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L71" t="inlineStr">
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3300,22 +2861,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L72" t="inlineStr">
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3342,22 +2900,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L73" t="inlineStr">
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3384,22 +2939,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L74" t="inlineStr">
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3424,24 +2976,21 @@
         <v>-103681390.762427</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L75" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3466,24 +3015,21 @@
         <v>-103674550.762427</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L76" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3508,24 +3054,21 @@
         <v>-103685763.612927</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L77" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3550,24 +3093,21 @@
         <v>-103377706.847027</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L78" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3594,22 +3134,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3636,22 +3173,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3678,22 +3212,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L81" t="inlineStr">
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3720,22 +3251,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L82" t="inlineStr">
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3762,22 +3290,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L83" t="inlineStr">
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3804,22 +3329,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L84" t="inlineStr">
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3846,22 +3368,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L85" t="inlineStr">
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3888,22 +3407,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3930,22 +3446,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L87" t="inlineStr">
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3972,22 +3485,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4014,22 +3524,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4056,22 +3563,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L90" t="inlineStr">
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4098,22 +3602,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L91" t="inlineStr">
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4140,22 +3641,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L92" t="inlineStr">
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4182,22 +3680,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L93" t="inlineStr">
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4224,22 +3719,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L94" t="inlineStr">
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4266,22 +3758,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4308,22 +3797,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4350,22 +3836,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4392,22 +3875,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4434,22 +3914,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L99" t="inlineStr">
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4476,22 +3953,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4518,22 +3992,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4560,22 +4031,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4602,24 +4070,21 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>6.688</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest VET.xlsx
+++ b/BackTest/2020-01-21 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-986338.4381000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1002998.4381</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-1062987.9499</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1040470.8792</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-927570.8792000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-914609.991</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-924643.3175</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-944913.3175</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-955043.3175</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-944913.3175</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-893478.0294999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-893378.0294999999</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-893278.0294999999</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1779666.041</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1792769.1282</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1078,14 +1078,10 @@
         <v>-1785478.5219</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>6.652</v>
-      </c>
-      <c r="J21" t="n">
-        <v>6.652</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
@@ -1115,19 +1111,11 @@
         <v>-1785478.5219</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>6.657</v>
-      </c>
-      <c r="J22" t="n">
-        <v>6.652</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1156,19 +1144,11 @@
         <v>-1786110.5219</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>6.657</v>
-      </c>
-      <c r="J23" t="n">
-        <v>6.652</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1197,7 +1177,7 @@
         <v>-1787110.5219</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1230,7 +1210,7 @@
         <v>-1724452.5219</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1263,7 +1243,7 @@
         <v>-1856349.5219</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1296,7 +1276,7 @@
         <v>-1722382.851</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1329,7 +1309,7 @@
         <v>-1723380.351</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1362,7 +1342,7 @@
         <v>-1707206.4989</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1395,7 +1375,7 @@
         <v>-1804751.4989</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1428,7 +1408,7 @@
         <v>-1609661.4989</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1461,7 +1441,7 @@
         <v>-1545368.4899</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1494,7 +1474,7 @@
         <v>-1545368.4899</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1527,7 +1507,7 @@
         <v>-1545368.4899</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1560,7 +1540,7 @@
         <v>-1545368.4899</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1593,7 +1573,7 @@
         <v>-1544860.577090206</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1626,7 +1606,7 @@
         <v>-1549469.467190206</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1659,7 +1639,7 @@
         <v>-1549469.467190206</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1692,7 +1672,7 @@
         <v>-1549469.467190206</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1725,7 +1705,7 @@
         <v>-1549469.467190206</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1758,7 +1738,7 @@
         <v>-1549469.467190206</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1791,14 +1771,10 @@
         <v>-1550961.623090205</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>6.684</v>
-      </c>
-      <c r="J42" t="n">
-        <v>6.684</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
@@ -1830,17 +1806,9 @@
       <c r="H43" t="n">
         <v>2</v>
       </c>
-      <c r="I43" t="n">
-        <v>6.683</v>
-      </c>
-      <c r="J43" t="n">
-        <v>6.684</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1869,19 +1837,11 @@
         <v>-1550235.173090206</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>6.683</v>
-      </c>
-      <c r="J44" t="n">
-        <v>6.684</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1910,14 +1870,10 @@
         <v>-1520235.173090206</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>6.692</v>
-      </c>
-      <c r="J45" t="n">
-        <v>6.692</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
@@ -1950,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>6.692</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1986,17 +1936,11 @@
         <v>-1493853.172290205</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>6.692</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2025,7 +1969,7 @@
         <v>-1396853.172290205</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2091,7 +2035,7 @@
         <v>-102622715.2414902</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2256,7 +2200,7 @@
         <v>-103344175.3627902</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2289,14 +2233,10 @@
         <v>-103344100.3627902</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>6.701</v>
-      </c>
-      <c r="J56" t="n">
-        <v>6.701</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
@@ -2326,19 +2266,11 @@
         <v>-103453716.3627902</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>6.709</v>
-      </c>
-      <c r="J57" t="n">
-        <v>6.701</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2367,19 +2299,11 @@
         <v>-103453129.0563902</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>6.683</v>
-      </c>
-      <c r="J58" t="n">
-        <v>6.701</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2441,7 +2365,7 @@
         <v>-103460164.2936902</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2507,7 +2431,7 @@
         <v>-103426424.2936902</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2540,7 +2464,7 @@
         <v>-103426424.2936902</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2573,7 +2497,7 @@
         <v>-103504424.2936902</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2606,7 +2530,7 @@
         <v>-103503979.386627</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2639,7 +2563,7 @@
         <v>-103853898.995027</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2672,7 +2596,7 @@
         <v>-103857176.181227</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2705,14 +2629,10 @@
         <v>-103856849.181227</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="J68" t="n">
-        <v>6.707</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
@@ -2745,1346 +2665,1196 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="K69" t="inlineStr">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>6.711</v>
+      </c>
+      <c r="C70" t="n">
+        <v>6.703</v>
+      </c>
+      <c r="D70" t="n">
+        <v>6.711</v>
+      </c>
+      <c r="E70" t="n">
+        <v>6.703</v>
+      </c>
+      <c r="F70" t="n">
+        <v>349919.614</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-104207037.340227</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>6.751</v>
+      </c>
+      <c r="C71" t="n">
+        <v>6.751</v>
+      </c>
+      <c r="D71" t="n">
+        <v>6.751</v>
+      </c>
+      <c r="E71" t="n">
+        <v>6.751</v>
+      </c>
+      <c r="F71" t="n">
+        <v>297000</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-103910037.340227</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>6.766</v>
+      </c>
+      <c r="C72" t="n">
+        <v>6.766</v>
+      </c>
+      <c r="D72" t="n">
+        <v>6.766</v>
+      </c>
+      <c r="E72" t="n">
+        <v>6.766</v>
+      </c>
+      <c r="F72" t="n">
+        <v>9683.3169</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-103900354.023327</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>6.766</v>
+      </c>
+      <c r="C73" t="n">
+        <v>6.766</v>
+      </c>
+      <c r="D73" t="n">
+        <v>6.766</v>
+      </c>
+      <c r="E73" t="n">
+        <v>6.766</v>
+      </c>
+      <c r="F73" t="n">
+        <v>19591.3804</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-103900354.023327</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C74" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D74" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E74" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F74" t="n">
+        <v>240000</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-103660354.023327</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>6.773</v>
+      </c>
+      <c r="C75" t="n">
+        <v>6.773</v>
+      </c>
+      <c r="D75" t="n">
+        <v>6.773</v>
+      </c>
+      <c r="E75" t="n">
+        <v>6.773</v>
+      </c>
+      <c r="F75" t="n">
+        <v>21036.7391</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-103681390.762427</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="C76" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="D76" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="E76" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="F76" t="n">
+        <v>6840</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-103674550.762427</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="C77" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="D77" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="E77" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="F77" t="n">
+        <v>11212.8505</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-103685763.612927</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="C78" t="n">
+        <v>6.771</v>
+      </c>
+      <c r="D78" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="E78" t="n">
+        <v>6.771</v>
+      </c>
+      <c r="F78" t="n">
+        <v>308056.7659</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-103377706.847027</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>6.771</v>
+      </c>
+      <c r="C79" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="D79" t="n">
+        <v>6.771</v>
+      </c>
+      <c r="E79" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="F79" t="n">
+        <v>162318.3169</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-103540025.163927</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="C80" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="D80" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="E80" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="F80" t="n">
+        <v>30283</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-103540025.163927</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>6.774</v>
+      </c>
+      <c r="C81" t="n">
+        <v>6.774</v>
+      </c>
+      <c r="D81" t="n">
+        <v>6.774</v>
+      </c>
+      <c r="E81" t="n">
+        <v>6.774</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-103537025.163927</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>6.766</v>
+      </c>
+      <c r="C82" t="n">
+        <v>6.756</v>
+      </c>
+      <c r="D82" t="n">
+        <v>6.766</v>
+      </c>
+      <c r="E82" t="n">
+        <v>6.756</v>
+      </c>
+      <c r="F82" t="n">
+        <v>205484</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-103742509.163927</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>6.756</v>
+      </c>
+      <c r="C83" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="D83" t="n">
+        <v>6.756</v>
+      </c>
+      <c r="E83" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="F83" t="n">
+        <v>131678.4574</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-103874187.621327</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>6.719</v>
+      </c>
+      <c r="C84" t="n">
+        <v>6.701</v>
+      </c>
+      <c r="D84" t="n">
+        <v>6.719</v>
+      </c>
+      <c r="E84" t="n">
+        <v>6.701</v>
+      </c>
+      <c r="F84" t="n">
+        <v>113770</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-103987957.621327</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>6.717</v>
+      </c>
+      <c r="C85" t="n">
+        <v>6.717</v>
+      </c>
+      <c r="D85" t="n">
+        <v>6.717</v>
+      </c>
+      <c r="E85" t="n">
+        <v>6.717</v>
+      </c>
+      <c r="F85" t="n">
+        <v>17457.2239</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-103970500.397427</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>6.716</v>
+      </c>
+      <c r="C86" t="n">
+        <v>6.701</v>
+      </c>
+      <c r="D86" t="n">
+        <v>6.716</v>
+      </c>
+      <c r="E86" t="n">
+        <v>6.701</v>
+      </c>
+      <c r="F86" t="n">
+        <v>181932.3312</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-104152432.728627</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>6.708</v>
+      </c>
+      <c r="C87" t="n">
+        <v>6.708</v>
+      </c>
+      <c r="D87" t="n">
+        <v>6.708</v>
+      </c>
+      <c r="E87" t="n">
+        <v>6.708</v>
+      </c>
+      <c r="F87" t="n">
+        <v>13288.1184</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-104139144.610227</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>6.703</v>
+      </c>
+      <c r="C88" t="n">
+        <v>6.703</v>
+      </c>
+      <c r="D88" t="n">
+        <v>6.703</v>
+      </c>
+      <c r="E88" t="n">
+        <v>6.703</v>
+      </c>
+      <c r="F88" t="n">
+        <v>4787.2383</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-104143931.848527</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>6.703</v>
+      </c>
+      <c r="C89" t="n">
+        <v>6.703</v>
+      </c>
+      <c r="D89" t="n">
+        <v>6.703</v>
+      </c>
+      <c r="E89" t="n">
+        <v>6.703</v>
+      </c>
+      <c r="F89" t="n">
+        <v>11905.2942</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-104143931.848527</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>6.703</v>
+      </c>
+      <c r="C90" t="n">
+        <v>6.703</v>
+      </c>
+      <c r="D90" t="n">
+        <v>6.703</v>
+      </c>
+      <c r="E90" t="n">
+        <v>6.703</v>
+      </c>
+      <c r="F90" t="n">
+        <v>297.3295</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-104143931.848527</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>6.714</v>
+      </c>
+      <c r="C91" t="n">
+        <v>6.714</v>
+      </c>
+      <c r="D91" t="n">
+        <v>6.714</v>
+      </c>
+      <c r="E91" t="n">
+        <v>6.714</v>
+      </c>
+      <c r="F91" t="n">
+        <v>13090.2642</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-104130841.584327</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>6.735</v>
+      </c>
+      <c r="C92" t="n">
+        <v>6.735</v>
+      </c>
+      <c r="D92" t="n">
+        <v>6.735</v>
+      </c>
+      <c r="E92" t="n">
+        <v>6.735</v>
+      </c>
+      <c r="F92" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-104100841.584327</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>6.733</v>
+      </c>
+      <c r="C93" t="n">
+        <v>6.733</v>
+      </c>
+      <c r="D93" t="n">
+        <v>6.733</v>
+      </c>
+      <c r="E93" t="n">
+        <v>6.733</v>
+      </c>
+      <c r="F93" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-104115841.584327</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="C94" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="D94" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="E94" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="F94" t="n">
+        <v>4666.34</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-104120507.924327</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>6.702</v>
+      </c>
+      <c r="C95" t="n">
+        <v>6.702</v>
+      </c>
+      <c r="D95" t="n">
+        <v>6.702</v>
+      </c>
+      <c r="E95" t="n">
+        <v>6.702</v>
+      </c>
+      <c r="F95" t="n">
+        <v>176.9866</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-104120684.910927</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="J95" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>6.689</v>
+      </c>
+      <c r="C96" t="n">
+        <v>6.689</v>
+      </c>
+      <c r="D96" t="n">
+        <v>6.689</v>
+      </c>
+      <c r="E96" t="n">
+        <v>6.689</v>
+      </c>
+      <c r="F96" t="n">
+        <v>3400</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-104124084.910927</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>6.702</v>
+      </c>
+      <c r="J96" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="K96" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>6.711</v>
-      </c>
-      <c r="C70" t="n">
-        <v>6.703</v>
-      </c>
-      <c r="D70" t="n">
-        <v>6.711</v>
-      </c>
-      <c r="E70" t="n">
-        <v>6.703</v>
-      </c>
-      <c r="F70" t="n">
-        <v>349919.614</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-104207037.340227</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="K70" t="inlineStr">
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>6.726</v>
+      </c>
+      <c r="C97" t="n">
+        <v>6.726</v>
+      </c>
+      <c r="D97" t="n">
+        <v>6.726</v>
+      </c>
+      <c r="E97" t="n">
+        <v>6.726</v>
+      </c>
+      <c r="F97" t="n">
+        <v>5592.1797</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-104118492.731227</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>6.689</v>
+      </c>
+      <c r="J97" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="C98" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="D98" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="E98" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="F98" t="n">
+        <v>28367.5102</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-104146860.241427</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>6.726</v>
+      </c>
+      <c r="J98" t="n">
+        <v>6.726</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="C99" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="D99" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="E99" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="F99" t="n">
+        <v>28473.1669</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-104118387.074527</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="J99" t="n">
+        <v>6.726</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>6.749</v>
+      </c>
+      <c r="C100" t="n">
+        <v>6.749</v>
+      </c>
+      <c r="D100" t="n">
+        <v>6.749</v>
+      </c>
+      <c r="E100" t="n">
+        <v>6.749</v>
+      </c>
+      <c r="F100" t="n">
+        <v>111639.241</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-104006747.833527</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="J100" t="n">
+        <v>6.726</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="C101" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="D101" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="E101" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="F101" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-104016747.833527</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>6.749</v>
+      </c>
+      <c r="J101" t="n">
+        <v>6.749</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>6.729</v>
+      </c>
+      <c r="C102" t="n">
+        <v>6.729</v>
+      </c>
+      <c r="D102" t="n">
+        <v>6.729</v>
+      </c>
+      <c r="E102" t="n">
+        <v>6.729</v>
+      </c>
+      <c r="F102" t="n">
+        <v>5440.811</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-104022188.644527</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="J102" t="n">
+        <v>6.749</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>6.727</v>
+      </c>
+      <c r="C103" t="n">
+        <v>6.723</v>
+      </c>
+      <c r="D103" t="n">
+        <v>6.727</v>
+      </c>
+      <c r="E103" t="n">
+        <v>6.723</v>
+      </c>
+      <c r="F103" t="n">
+        <v>156000</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-104178188.644527</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>6.729</v>
+      </c>
+      <c r="J103" t="n">
+        <v>6.749</v>
+      </c>
+      <c r="K103" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>6.751</v>
-      </c>
-      <c r="C71" t="n">
-        <v>6.751</v>
-      </c>
-      <c r="D71" t="n">
-        <v>6.751</v>
-      </c>
-      <c r="E71" t="n">
-        <v>6.751</v>
-      </c>
-      <c r="F71" t="n">
-        <v>297000</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-103910037.340227</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>6.766</v>
-      </c>
-      <c r="C72" t="n">
-        <v>6.766</v>
-      </c>
-      <c r="D72" t="n">
-        <v>6.766</v>
-      </c>
-      <c r="E72" t="n">
-        <v>6.766</v>
-      </c>
-      <c r="F72" t="n">
-        <v>9683.3169</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-103900354.023327</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>6.766</v>
-      </c>
-      <c r="C73" t="n">
-        <v>6.766</v>
-      </c>
-      <c r="D73" t="n">
-        <v>6.766</v>
-      </c>
-      <c r="E73" t="n">
-        <v>6.766</v>
-      </c>
-      <c r="F73" t="n">
-        <v>19591.3804</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-103900354.023327</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="C74" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="D74" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="E74" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="F74" t="n">
-        <v>240000</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-103660354.023327</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>6.773</v>
-      </c>
-      <c r="C75" t="n">
-        <v>6.773</v>
-      </c>
-      <c r="D75" t="n">
-        <v>6.773</v>
-      </c>
-      <c r="E75" t="n">
-        <v>6.773</v>
-      </c>
-      <c r="F75" t="n">
-        <v>21036.7391</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-103681390.762427</v>
-      </c>
-      <c r="H75" t="n">
-        <v>3</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="C76" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="D76" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="E76" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="F76" t="n">
-        <v>6840</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-103674550.762427</v>
-      </c>
-      <c r="H76" t="n">
-        <v>3</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="C77" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="D77" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="E77" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="F77" t="n">
-        <v>11212.8505</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-103685763.612927</v>
-      </c>
-      <c r="H77" t="n">
-        <v>3</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="C78" t="n">
-        <v>6.771</v>
-      </c>
-      <c r="D78" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="E78" t="n">
-        <v>6.771</v>
-      </c>
-      <c r="F78" t="n">
-        <v>308056.7659</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-103377706.847027</v>
-      </c>
-      <c r="H78" t="n">
-        <v>3</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>6.771</v>
-      </c>
-      <c r="C79" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="D79" t="n">
-        <v>6.771</v>
-      </c>
-      <c r="E79" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="F79" t="n">
-        <v>162318.3169</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-103540025.163927</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="C80" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="D80" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="E80" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="F80" t="n">
-        <v>30283</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-103540025.163927</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>6.774</v>
-      </c>
-      <c r="C81" t="n">
-        <v>6.774</v>
-      </c>
-      <c r="D81" t="n">
-        <v>6.774</v>
-      </c>
-      <c r="E81" t="n">
-        <v>6.774</v>
-      </c>
-      <c r="F81" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-103537025.163927</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>6.766</v>
-      </c>
-      <c r="C82" t="n">
-        <v>6.756</v>
-      </c>
-      <c r="D82" t="n">
-        <v>6.766</v>
-      </c>
-      <c r="E82" t="n">
-        <v>6.756</v>
-      </c>
-      <c r="F82" t="n">
-        <v>205484</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-103742509.163927</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>6.756</v>
-      </c>
-      <c r="C83" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="D83" t="n">
-        <v>6.756</v>
-      </c>
-      <c r="E83" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="F83" t="n">
-        <v>131678.4574</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-103874187.621327</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>6.719</v>
-      </c>
-      <c r="C84" t="n">
-        <v>6.701</v>
-      </c>
-      <c r="D84" t="n">
-        <v>6.719</v>
-      </c>
-      <c r="E84" t="n">
-        <v>6.701</v>
-      </c>
-      <c r="F84" t="n">
-        <v>113770</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-103987957.621327</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>6.717</v>
-      </c>
-      <c r="C85" t="n">
-        <v>6.717</v>
-      </c>
-      <c r="D85" t="n">
-        <v>6.717</v>
-      </c>
-      <c r="E85" t="n">
-        <v>6.717</v>
-      </c>
-      <c r="F85" t="n">
-        <v>17457.2239</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-103970500.397427</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>6.716</v>
-      </c>
-      <c r="C86" t="n">
-        <v>6.701</v>
-      </c>
-      <c r="D86" t="n">
-        <v>6.716</v>
-      </c>
-      <c r="E86" t="n">
-        <v>6.701</v>
-      </c>
-      <c r="F86" t="n">
-        <v>181932.3312</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-104152432.728627</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>6.708</v>
-      </c>
-      <c r="C87" t="n">
-        <v>6.708</v>
-      </c>
-      <c r="D87" t="n">
-        <v>6.708</v>
-      </c>
-      <c r="E87" t="n">
-        <v>6.708</v>
-      </c>
-      <c r="F87" t="n">
-        <v>13288.1184</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-104139144.610227</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>6.703</v>
-      </c>
-      <c r="C88" t="n">
-        <v>6.703</v>
-      </c>
-      <c r="D88" t="n">
-        <v>6.703</v>
-      </c>
-      <c r="E88" t="n">
-        <v>6.703</v>
-      </c>
-      <c r="F88" t="n">
-        <v>4787.2383</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-104143931.848527</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>6.703</v>
-      </c>
-      <c r="C89" t="n">
-        <v>6.703</v>
-      </c>
-      <c r="D89" t="n">
-        <v>6.703</v>
-      </c>
-      <c r="E89" t="n">
-        <v>6.703</v>
-      </c>
-      <c r="F89" t="n">
-        <v>11905.2942</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-104143931.848527</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>6.703</v>
-      </c>
-      <c r="C90" t="n">
-        <v>6.703</v>
-      </c>
-      <c r="D90" t="n">
-        <v>6.703</v>
-      </c>
-      <c r="E90" t="n">
-        <v>6.703</v>
-      </c>
-      <c r="F90" t="n">
-        <v>297.3295</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-104143931.848527</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>6.714</v>
-      </c>
-      <c r="C91" t="n">
-        <v>6.714</v>
-      </c>
-      <c r="D91" t="n">
-        <v>6.714</v>
-      </c>
-      <c r="E91" t="n">
-        <v>6.714</v>
-      </c>
-      <c r="F91" t="n">
-        <v>13090.2642</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-104130841.584327</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>6.735</v>
-      </c>
-      <c r="C92" t="n">
-        <v>6.735</v>
-      </c>
-      <c r="D92" t="n">
-        <v>6.735</v>
-      </c>
-      <c r="E92" t="n">
-        <v>6.735</v>
-      </c>
-      <c r="F92" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-104100841.584327</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>6.733</v>
-      </c>
-      <c r="C93" t="n">
-        <v>6.733</v>
-      </c>
-      <c r="D93" t="n">
-        <v>6.733</v>
-      </c>
-      <c r="E93" t="n">
-        <v>6.733</v>
-      </c>
-      <c r="F93" t="n">
-        <v>15000</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-104115841.584327</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>6.704</v>
-      </c>
-      <c r="C94" t="n">
-        <v>6.704</v>
-      </c>
-      <c r="D94" t="n">
-        <v>6.704</v>
-      </c>
-      <c r="E94" t="n">
-        <v>6.704</v>
-      </c>
-      <c r="F94" t="n">
-        <v>4666.34</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-104120507.924327</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>6.702</v>
-      </c>
-      <c r="C95" t="n">
-        <v>6.702</v>
-      </c>
-      <c r="D95" t="n">
-        <v>6.702</v>
-      </c>
-      <c r="E95" t="n">
-        <v>6.702</v>
-      </c>
-      <c r="F95" t="n">
-        <v>176.9866</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-104120684.910927</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>6.689</v>
-      </c>
-      <c r="C96" t="n">
-        <v>6.689</v>
-      </c>
-      <c r="D96" t="n">
-        <v>6.689</v>
-      </c>
-      <c r="E96" t="n">
-        <v>6.689</v>
-      </c>
-      <c r="F96" t="n">
-        <v>3400</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-104124084.910927</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>6.726</v>
-      </c>
-      <c r="C97" t="n">
-        <v>6.726</v>
-      </c>
-      <c r="D97" t="n">
-        <v>6.726</v>
-      </c>
-      <c r="E97" t="n">
-        <v>6.726</v>
-      </c>
-      <c r="F97" t="n">
-        <v>5592.1797</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-104118492.731227</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="C98" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="D98" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="E98" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="F98" t="n">
-        <v>28367.5102</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-104146860.241427</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>6.721</v>
-      </c>
-      <c r="C99" t="n">
-        <v>6.721</v>
-      </c>
-      <c r="D99" t="n">
-        <v>6.721</v>
-      </c>
-      <c r="E99" t="n">
-        <v>6.721</v>
-      </c>
-      <c r="F99" t="n">
-        <v>28473.1669</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-104118387.074527</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>6.749</v>
-      </c>
-      <c r="C100" t="n">
-        <v>6.749</v>
-      </c>
-      <c r="D100" t="n">
-        <v>6.749</v>
-      </c>
-      <c r="E100" t="n">
-        <v>6.749</v>
-      </c>
-      <c r="F100" t="n">
-        <v>111639.241</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-104006747.833527</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="C101" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="D101" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="E101" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="F101" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-104016747.833527</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>6.729</v>
-      </c>
-      <c r="C102" t="n">
-        <v>6.729</v>
-      </c>
-      <c r="D102" t="n">
-        <v>6.729</v>
-      </c>
-      <c r="E102" t="n">
-        <v>6.729</v>
-      </c>
-      <c r="F102" t="n">
-        <v>5440.811</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-104022188.644527</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>6.727</v>
-      </c>
-      <c r="C103" t="n">
-        <v>6.723</v>
-      </c>
-      <c r="D103" t="n">
-        <v>6.727</v>
-      </c>
-      <c r="E103" t="n">
-        <v>6.723</v>
-      </c>
-      <c r="F103" t="n">
-        <v>156000</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-104178188.644527</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
       <c r="M103" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest VET.xlsx
+++ b/BackTest/2020-01-21 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-986338.4381000001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1002998.4381</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-1062987.9499</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1040470.8792</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-927570.8792000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-914609.991</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-924643.3175</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-944913.3175</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-955043.3175</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-944913.3175</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-893478.0294999999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-893378.0294999999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-893278.0294999999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1779666.041</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1779666.041</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1793140.3592</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1793140.3592</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1823526.3592</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1785478.5219</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1785478.5219</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1787110.5219</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1724452.5219</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1722382.851</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1723380.351</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1707206.4989</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1804751.4989</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1609661.4989</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-1545368.4899</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1545368.4899</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-1545368.4899</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-1545368.4899</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-1544860.577090206</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-1549469.467190206</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1549469.467190206</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-1549469.467190206</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1549469.467190206</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1549469.467190206</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1550961.623090205</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1493853.172290205</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1396853.172290205</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-4810158.290690206</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-102622715.2414902</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-103459627.2414902</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-103460164.2936902</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-104207037.340227</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-103900354.023327</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-103900354.023327</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3520,14 +3520,10 @@
         <v>-104120684.910927</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>6.704</v>
-      </c>
-      <c r="J95" t="n">
-        <v>6.704</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
@@ -3557,216 +3553,188 @@
         <v>-104124084.910927</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>6.702</v>
-      </c>
-      <c r="J96" t="n">
-        <v>6.704</v>
-      </c>
-      <c r="K96" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>6.726</v>
+      </c>
+      <c r="C97" t="n">
+        <v>6.726</v>
+      </c>
+      <c r="D97" t="n">
+        <v>6.726</v>
+      </c>
+      <c r="E97" t="n">
+        <v>6.726</v>
+      </c>
+      <c r="F97" t="n">
+        <v>5592.1797</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-104118492.731227</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="C98" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="D98" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="E98" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="F98" t="n">
+        <v>28367.5102</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-104146860.241427</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="C99" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="D99" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="E99" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="F99" t="n">
+        <v>28473.1669</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-104118387.074527</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>6.749</v>
+      </c>
+      <c r="C100" t="n">
+        <v>6.749</v>
+      </c>
+      <c r="D100" t="n">
+        <v>6.749</v>
+      </c>
+      <c r="E100" t="n">
+        <v>6.749</v>
+      </c>
+      <c r="F100" t="n">
+        <v>111639.241</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-104006747.833527</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="J100" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="C101" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="D101" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="E101" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="F101" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-104016747.833527</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>6.749</v>
+      </c>
+      <c r="J101" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="K101" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>6.726</v>
-      </c>
-      <c r="C97" t="n">
-        <v>6.726</v>
-      </c>
-      <c r="D97" t="n">
-        <v>6.726</v>
-      </c>
-      <c r="E97" t="n">
-        <v>6.726</v>
-      </c>
-      <c r="F97" t="n">
-        <v>5592.1797</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-104118492.731227</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>6.689</v>
-      </c>
-      <c r="J97" t="n">
-        <v>6.704</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="C98" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="D98" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="E98" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="F98" t="n">
-        <v>28367.5102</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-104146860.241427</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>6.726</v>
-      </c>
-      <c r="J98" t="n">
-        <v>6.726</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>6.721</v>
-      </c>
-      <c r="C99" t="n">
-        <v>6.721</v>
-      </c>
-      <c r="D99" t="n">
-        <v>6.721</v>
-      </c>
-      <c r="E99" t="n">
-        <v>6.721</v>
-      </c>
-      <c r="F99" t="n">
-        <v>28473.1669</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-104118387.074527</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="J99" t="n">
-        <v>6.726</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>6.749</v>
-      </c>
-      <c r="C100" t="n">
-        <v>6.749</v>
-      </c>
-      <c r="D100" t="n">
-        <v>6.749</v>
-      </c>
-      <c r="E100" t="n">
-        <v>6.749</v>
-      </c>
-      <c r="F100" t="n">
-        <v>111639.241</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-104006747.833527</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>6.721</v>
-      </c>
-      <c r="J100" t="n">
-        <v>6.726</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="C101" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="D101" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="E101" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="F101" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-104016747.833527</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>6.749</v>
-      </c>
-      <c r="J101" t="n">
-        <v>6.749</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3795,13 +3763,11 @@
         <v>-104022188.644527</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>6.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>6.749</v>
+        <v>6.721</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -3836,25 +3802,17 @@
         <v>-104178188.644527</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>6.729</v>
-      </c>
-      <c r="J103" t="n">
-        <v>6.749</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
       <c r="M103" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest VET.xlsx
+++ b/BackTest/2020-01-21 BackTest VET.xlsx
@@ -913,7 +913,7 @@
         <v>-1779666.041</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1792769.1282</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1793140.3592</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1793140.3592</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1823526.3592</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1785478.5219</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1785478.5219</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1856349.5219</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-4810158.290690206</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-102622715.2414902</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-103459627.2414902</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-104207037.340227</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-103900354.023327</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-103900354.023327</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-103674550.762427</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-103685763.612927</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3289,10 +3289,14 @@
         <v>-104143931.848527</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>6.708</v>
+      </c>
+      <c r="J88" t="n">
+        <v>6.708</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
@@ -3322,11 +3326,19 @@
         <v>-104143931.848527</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>6.703</v>
+      </c>
+      <c r="J89" t="n">
+        <v>6.708</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3367,19 @@
         <v>-104143931.848527</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>6.703</v>
+      </c>
+      <c r="J90" t="n">
+        <v>6.708</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,10 +3408,14 @@
         <v>-104130841.584327</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>6.703</v>
+      </c>
+      <c r="J91" t="n">
+        <v>6.703</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
@@ -3421,11 +3445,19 @@
         <v>-104100841.584327</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>6.714</v>
+      </c>
+      <c r="J92" t="n">
+        <v>6.703</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3486,19 @@
         <v>-104115841.584327</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>6.735</v>
+      </c>
+      <c r="J93" t="n">
+        <v>6.703</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,10 +3527,14 @@
         <v>-104120507.924327</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>6.733</v>
+      </c>
+      <c r="J94" t="n">
+        <v>6.733</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
@@ -3520,11 +3564,19 @@
         <v>-104120684.910927</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="J95" t="n">
+        <v>6.733</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3605,19 @@
         <v>-104124084.910927</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>6.702</v>
+      </c>
+      <c r="J96" t="n">
+        <v>6.733</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,10 +3646,14 @@
         <v>-104118492.731227</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>6.689</v>
+      </c>
+      <c r="J97" t="n">
+        <v>6.689</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
@@ -3619,11 +3683,19 @@
         <v>-104146860.241427</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>6.726</v>
+      </c>
+      <c r="J98" t="n">
+        <v>6.689</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3724,19 @@
         <v>-104118387.074527</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="J99" t="n">
+        <v>6.689</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3722,11 +3802,9 @@
         <v>-104016747.833527</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>6.749</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
         <v>6.721</v>
       </c>
@@ -3763,7 +3841,7 @@
         <v>-104022188.644527</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
@@ -3802,11 +3880,19 @@
         <v>-104178188.644527</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>6.729</v>
+      </c>
+      <c r="J103" t="n">
+        <v>6.721</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-21 BackTest VET.xlsx
+++ b/BackTest/2020-01-21 BackTest VET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>3149.4027</v>
       </c>
       <c r="G2" t="n">
-        <v>-986338.4381000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,19 @@
         <v>16660</v>
       </c>
       <c r="G3" t="n">
-        <v>-1002998.4381</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>6.651</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.651</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +507,23 @@
         <v>59989.5118</v>
       </c>
       <c r="G4" t="n">
-        <v>-1062987.9499</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>6.639</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +545,23 @@
         <v>22517.0707</v>
       </c>
       <c r="G5" t="n">
-        <v>-1040470.8792</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>6.615</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +583,23 @@
         <v>112900</v>
       </c>
       <c r="G6" t="n">
-        <v>-927570.8792000001</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>6.654</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +621,21 @@
         <v>12960.8882</v>
       </c>
       <c r="G7" t="n">
-        <v>-914609.991</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +657,21 @@
         <v>10033.3265</v>
       </c>
       <c r="G8" t="n">
-        <v>-924643.3175</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +693,21 @@
         <v>20270</v>
       </c>
       <c r="G9" t="n">
-        <v>-944913.3175</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +729,21 @@
         <v>10130</v>
       </c>
       <c r="G10" t="n">
-        <v>-955043.3175</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +765,21 @@
         <v>10130</v>
       </c>
       <c r="G11" t="n">
-        <v>-944913.3175</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +801,21 @@
         <v>51435.288</v>
       </c>
       <c r="G12" t="n">
-        <v>-893478.0294999999</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +837,21 @@
         <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>-893378.0294999999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +873,21 @@
         <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>-893278.0294999999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +909,21 @@
         <v>886388.0115</v>
       </c>
       <c r="G15" t="n">
-        <v>-1779666.041</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +945,21 @@
         <v>0.0001</v>
       </c>
       <c r="G16" t="n">
-        <v>-1779666.041</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +981,21 @@
         <v>13103.0872</v>
       </c>
       <c r="G17" t="n">
-        <v>-1792769.1282</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +1017,21 @@
         <v>371.231</v>
       </c>
       <c r="G18" t="n">
-        <v>-1793140.3592</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1053,21 @@
         <v>144125.2375</v>
       </c>
       <c r="G19" t="n">
-        <v>-1793140.3592</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1089,21 @@
         <v>30386</v>
       </c>
       <c r="G20" t="n">
-        <v>-1823526.3592</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1125,21 @@
         <v>38047.8373</v>
       </c>
       <c r="G21" t="n">
-        <v>-1785478.5219</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1161,21 @@
         <v>2973.0877</v>
       </c>
       <c r="G22" t="n">
-        <v>-1785478.5219</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1197,21 @@
         <v>632</v>
       </c>
       <c r="G23" t="n">
-        <v>-1786110.5219</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1233,21 @@
         <v>1000</v>
       </c>
       <c r="G24" t="n">
-        <v>-1787110.5219</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1269,21 @@
         <v>62658</v>
       </c>
       <c r="G25" t="n">
-        <v>-1724452.5219</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1305,21 @@
         <v>131897</v>
       </c>
       <c r="G26" t="n">
-        <v>-1856349.5219</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1341,21 @@
         <v>133966.6709</v>
       </c>
       <c r="G27" t="n">
-        <v>-1722382.851</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1377,21 @@
         <v>997.5</v>
       </c>
       <c r="G28" t="n">
-        <v>-1723380.351</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1413,21 @@
         <v>16173.8521</v>
       </c>
       <c r="G29" t="n">
-        <v>-1707206.4989</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1449,21 @@
         <v>97545</v>
       </c>
       <c r="G30" t="n">
-        <v>-1804751.4989</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1485,21 @@
         <v>195090</v>
       </c>
       <c r="G31" t="n">
-        <v>-1609661.4989</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1521,21 @@
         <v>64293.009</v>
       </c>
       <c r="G32" t="n">
-        <v>-1545368.4899</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1557,21 @@
         <v>100177.9999</v>
       </c>
       <c r="G33" t="n">
-        <v>-1545368.4899</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1593,21 @@
         <v>141169.7579</v>
       </c>
       <c r="G34" t="n">
-        <v>-1545368.4899</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1629,21 @@
         <v>455408.0534</v>
       </c>
       <c r="G35" t="n">
-        <v>-1545368.4899</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1665,21 @@
         <v>507.9128097939683</v>
       </c>
       <c r="G36" t="n">
-        <v>-1544860.577090206</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1701,21 @@
         <v>4608.8901</v>
       </c>
       <c r="G37" t="n">
-        <v>-1549469.467190206</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1737,21 @@
         <v>150154.5172</v>
       </c>
       <c r="G38" t="n">
-        <v>-1549469.467190206</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1773,21 @@
         <v>426252.5026</v>
       </c>
       <c r="G39" t="n">
-        <v>-1549469.467190206</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1809,21 @@
         <v>148313</v>
       </c>
       <c r="G40" t="n">
-        <v>-1549469.467190206</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1845,21 @@
         <v>110193.0825</v>
       </c>
       <c r="G41" t="n">
-        <v>-1549469.467190206</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1881,21 @@
         <v>1492.1559</v>
       </c>
       <c r="G42" t="n">
-        <v>-1550961.623090205</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1917,21 @@
         <v>97545</v>
       </c>
       <c r="G43" t="n">
-        <v>-1550961.623090205</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1953,21 @@
         <v>726.45</v>
       </c>
       <c r="G44" t="n">
-        <v>-1550235.173090206</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1989,21 @@
         <v>30000</v>
       </c>
       <c r="G45" t="n">
-        <v>-1520235.173090206</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +2025,21 @@
         <v>4957.9992</v>
       </c>
       <c r="G46" t="n">
-        <v>-1525193.172290205</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +2061,21 @@
         <v>31340</v>
       </c>
       <c r="G47" t="n">
-        <v>-1493853.172290205</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2097,21 @@
         <v>97000</v>
       </c>
       <c r="G48" t="n">
-        <v>-1396853.172290205</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2133,21 @@
         <v>3413305.1184</v>
       </c>
       <c r="G49" t="n">
-        <v>-4810158.290690206</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2169,21 @@
         <v>97812556.9508</v>
       </c>
       <c r="G50" t="n">
-        <v>-102622715.2414902</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2205,21 @@
         <v>836912</v>
       </c>
       <c r="G51" t="n">
-        <v>-103459627.2414902</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2241,21 @@
         <v>9909</v>
       </c>
       <c r="G52" t="n">
-        <v>-103449718.2414902</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2277,21 @@
         <v>5950.1451</v>
       </c>
       <c r="G53" t="n">
-        <v>-103455668.3865902</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2313,21 @@
         <v>15037.2032</v>
       </c>
       <c r="G54" t="n">
-        <v>-103440631.1833902</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2349,21 @@
         <v>96455.82060000001</v>
       </c>
       <c r="G55" t="n">
-        <v>-103344175.3627902</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2385,21 @@
         <v>75</v>
       </c>
       <c r="G56" t="n">
-        <v>-103344100.3627902</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2421,21 @@
         <v>109616</v>
       </c>
       <c r="G57" t="n">
-        <v>-103453716.3627902</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2457,21 @@
         <v>587.3064000000001</v>
       </c>
       <c r="G58" t="n">
-        <v>-103453129.0563902</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2493,21 @@
         <v>1500.0745</v>
       </c>
       <c r="G59" t="n">
-        <v>-103454629.1308902</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2529,21 @@
         <v>5535.1628</v>
       </c>
       <c r="G60" t="n">
-        <v>-103460164.2936902</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2565,21 @@
         <v>33740</v>
       </c>
       <c r="G61" t="n">
-        <v>-103426424.2936902</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2601,21 @@
         <v>72974</v>
       </c>
       <c r="G62" t="n">
-        <v>-103426424.2936902</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2637,21 @@
         <v>295592.1902</v>
       </c>
       <c r="G63" t="n">
-        <v>-103426424.2936902</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2673,21 @@
         <v>78000</v>
       </c>
       <c r="G64" t="n">
-        <v>-103504424.2936902</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2709,21 @@
         <v>444.907063197026</v>
       </c>
       <c r="G65" t="n">
-        <v>-103503979.386627</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2745,21 @@
         <v>349919.6084</v>
       </c>
       <c r="G66" t="n">
-        <v>-103853898.995027</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2781,21 @@
         <v>3277.1862</v>
       </c>
       <c r="G67" t="n">
-        <v>-103857176.181227</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2817,21 @@
         <v>327</v>
       </c>
       <c r="G68" t="n">
-        <v>-103856849.181227</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2853,21 @@
         <v>268.545</v>
       </c>
       <c r="G69" t="n">
-        <v>-103857117.726227</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2889,21 @@
         <v>349919.614</v>
       </c>
       <c r="G70" t="n">
-        <v>-104207037.340227</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2925,21 @@
         <v>297000</v>
       </c>
       <c r="G71" t="n">
-        <v>-103910037.340227</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2961,21 @@
         <v>9683.3169</v>
       </c>
       <c r="G72" t="n">
-        <v>-103900354.023327</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2997,21 @@
         <v>19591.3804</v>
       </c>
       <c r="G73" t="n">
-        <v>-103900354.023327</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +3033,21 @@
         <v>240000</v>
       </c>
       <c r="G74" t="n">
-        <v>-103660354.023327</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +3069,21 @@
         <v>21036.7391</v>
       </c>
       <c r="G75" t="n">
-        <v>-103681390.762427</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +3105,21 @@
         <v>6840</v>
       </c>
       <c r="G76" t="n">
-        <v>-103674550.762427</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +3141,21 @@
         <v>11212.8505</v>
       </c>
       <c r="G77" t="n">
-        <v>-103685763.612927</v>
-      </c>
-      <c r="H77" t="n">
         <v>2</v>
       </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>6.651</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1.012892046308826</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +3177,15 @@
         <v>308056.7659</v>
       </c>
       <c r="G78" t="n">
-        <v>-103377706.847027</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +3207,15 @@
         <v>162318.3169</v>
       </c>
       <c r="G79" t="n">
-        <v>-103540025.163927</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3237,15 @@
         <v>30283</v>
       </c>
       <c r="G80" t="n">
-        <v>-103540025.163927</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3267,15 @@
         <v>3000</v>
       </c>
       <c r="G81" t="n">
-        <v>-103537025.163927</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3297,15 @@
         <v>205484</v>
       </c>
       <c r="G82" t="n">
-        <v>-103742509.163927</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3327,15 @@
         <v>131678.4574</v>
       </c>
       <c r="G83" t="n">
-        <v>-103874187.621327</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3357,15 @@
         <v>113770</v>
       </c>
       <c r="G84" t="n">
-        <v>-103987957.621327</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3387,15 @@
         <v>17457.2239</v>
       </c>
       <c r="G85" t="n">
-        <v>-103970500.397427</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3417,15 @@
         <v>181932.3312</v>
       </c>
       <c r="G86" t="n">
-        <v>-104152432.728627</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3447,15 @@
         <v>13288.1184</v>
       </c>
       <c r="G87" t="n">
-        <v>-104139144.610227</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,22 +3477,15 @@
         <v>4787.2383</v>
       </c>
       <c r="G88" t="n">
-        <v>-104143931.848527</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>6.708</v>
-      </c>
-      <c r="J88" t="n">
-        <v>6.708</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3323,26 +3507,15 @@
         <v>11905.2942</v>
       </c>
       <c r="G89" t="n">
-        <v>-104143931.848527</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>6.703</v>
-      </c>
-      <c r="J89" t="n">
-        <v>6.708</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3364,26 +3537,15 @@
         <v>297.3295</v>
       </c>
       <c r="G90" t="n">
-        <v>-104143931.848527</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>6.703</v>
-      </c>
-      <c r="J90" t="n">
-        <v>6.708</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3405,22 +3567,15 @@
         <v>13090.2642</v>
       </c>
       <c r="G91" t="n">
-        <v>-104130841.584327</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>6.703</v>
-      </c>
-      <c r="J91" t="n">
-        <v>6.703</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3442,26 +3597,15 @@
         <v>30000</v>
       </c>
       <c r="G92" t="n">
-        <v>-104100841.584327</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>6.714</v>
-      </c>
-      <c r="J92" t="n">
-        <v>6.703</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3483,26 +3627,15 @@
         <v>15000</v>
       </c>
       <c r="G93" t="n">
-        <v>-104115841.584327</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>6.735</v>
-      </c>
-      <c r="J93" t="n">
-        <v>6.703</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3524,22 +3657,15 @@
         <v>4666.34</v>
       </c>
       <c r="G94" t="n">
-        <v>-104120507.924327</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>6.733</v>
-      </c>
-      <c r="J94" t="n">
-        <v>6.733</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3561,26 +3687,15 @@
         <v>176.9866</v>
       </c>
       <c r="G95" t="n">
-        <v>-104120684.910927</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>6.704</v>
-      </c>
-      <c r="J95" t="n">
-        <v>6.733</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3602,26 +3717,15 @@
         <v>3400</v>
       </c>
       <c r="G96" t="n">
-        <v>-104124084.910927</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>6.702</v>
-      </c>
-      <c r="J96" t="n">
-        <v>6.733</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3643,22 +3747,15 @@
         <v>5592.1797</v>
       </c>
       <c r="G97" t="n">
-        <v>-104118492.731227</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>6.689</v>
-      </c>
-      <c r="J97" t="n">
-        <v>6.689</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3680,26 +3777,15 @@
         <v>28367.5102</v>
       </c>
       <c r="G98" t="n">
-        <v>-104146860.241427</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>6.726</v>
-      </c>
-      <c r="J98" t="n">
-        <v>6.689</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3721,26 +3807,15 @@
         <v>28473.1669</v>
       </c>
       <c r="G99" t="n">
-        <v>-104118387.074527</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="J99" t="n">
-        <v>6.689</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3762,22 +3837,15 @@
         <v>111639.241</v>
       </c>
       <c r="G100" t="n">
-        <v>-104006747.833527</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>6.721</v>
-      </c>
-      <c r="J100" t="n">
-        <v>6.721</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3799,24 +3867,15 @@
         <v>10000</v>
       </c>
       <c r="G101" t="n">
-        <v>-104016747.833527</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>6.721</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3838,24 +3897,15 @@
         <v>5440.811</v>
       </c>
       <c r="G102" t="n">
-        <v>-104022188.644527</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>6.721</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3877,26 +3927,15 @@
         <v>156000</v>
       </c>
       <c r="G103" t="n">
-        <v>-104178188.644527</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>6.729</v>
-      </c>
-      <c r="J103" t="n">
-        <v>6.721</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
